--- a/test/integrated/styles/demo.xlsx
+++ b/test/integrated/styles/demo.xlsx
@@ -30,6 +30,9 @@
 
 <file path=workbook/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="200" formatCode="#,##0.00;(#,##0.00)"/>
+  </numFmts>
   <fonts count="1">
     <font/>
   </fonts>
@@ -39,24 +42,15 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border/>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf/>
-    <xf fontId="0" borderId="1"/>
+    <xf fontId="0" numFmtId="200"/>
   </cellXfs>
 </styleSheet>
 </file>
